--- a/TZ.xlsx
+++ b/TZ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB2F628-2ED0-4A38-A121-1CB284A24FEA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974EB069-D496-4053-AA53-DDF77D2CF083}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Доработать универсальную форму элемента справочника для списков элементов справочников</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Доработать редактор настроек программы</t>
+  </si>
+  <si>
+    <t>"=&gt;"</t>
   </si>
 </sst>
 </file>
@@ -363,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C8"/>
+  <dimension ref="A2:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -374,42 +377,45 @@
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>45038</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s">
         <v>5</v>

--- a/TZ.xlsx
+++ b/TZ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974EB069-D496-4053-AA53-DDF77D2CF083}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3197851-0BA7-4340-8047-3F0B7323D50B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Доработать универсальную форму элемента справочника для списков элементов справочников</t>
   </si>
@@ -41,6 +41,30 @@
   </si>
   <si>
     <t>"=&gt;"</t>
+  </si>
+  <si>
+    <t>Форма "Текущее состояние и местоположение техники"</t>
+  </si>
+  <si>
+    <t>Добавить строку управления таблицами</t>
+  </si>
+  <si>
+    <t>Создать справочник "Место расположения техники"</t>
+  </si>
+  <si>
+    <t>Создать справочник "Ответсвенные лица"</t>
+  </si>
+  <si>
+    <t>Создать документ "Потребность"</t>
+  </si>
+  <si>
+    <t>Создать документ "Закупка"</t>
+  </si>
+  <si>
+    <t>Создать документ "Списание"</t>
+  </si>
+  <si>
+    <t>Создать регистр "Движения техники" Форма "Текущее состояние и местоположение техники"</t>
   </si>
 </sst>
 </file>
@@ -366,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C8"/>
+  <dimension ref="A2:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,6 +445,52 @@
         <v>5</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>45053</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TZ.xlsx
+++ b/TZ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3197851-0BA7-4340-8047-3F0B7323D50B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E261DA-EDF6-49DE-9446-3341E6B402C7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Доработать универсальную форму элемента справочника для списков элементов справочников</t>
   </si>
@@ -65,6 +65,18 @@
   </si>
   <si>
     <t>Создать регистр "Движения техники" Форма "Текущее состояние и местоположение техники"</t>
+  </si>
+  <si>
+    <t>Создать справочник "Единицы измерения"</t>
+  </si>
+  <si>
+    <t>Добавить возможность управления порядком колонок/элементов в форме редактирования элемента</t>
+  </si>
+  <si>
+    <t>Отработать работу установщика программы</t>
+  </si>
+  <si>
+    <t>Добавить возможность сохранения в Эксель</t>
   </si>
 </sst>
 </file>
@@ -80,7 +92,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,6 +102,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF66"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -106,16 +124,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF66FF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -390,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C18"/>
+  <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,43 +475,69 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
+      <c r="B11" s="2"/>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
         <v>45053</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>14</v>
       </c>
     </row>

--- a/TZ.xlsx
+++ b/TZ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E261DA-EDF6-49DE-9446-3341E6B402C7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAC4CD0-0DC2-463E-8C98-856E82D446D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +437,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
+      <c r="B4" s="3"/>
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -455,7 +455,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
+      <c r="B7" s="3"/>
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -464,7 +464,7 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="3"/>
       <c r="C8" t="s">
         <v>5</v>
       </c>

--- a/TZ.xlsx
+++ b/TZ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAC4CD0-0DC2-463E-8C98-856E82D446D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A251C0-B894-48E6-94D8-4D6762912334}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="19">
   <si>
     <t>Доработать универсальную форму элемента справочника для списков элементов справочников</t>
   </si>
@@ -73,10 +73,10 @@
     <t>Добавить возможность управления порядком колонок/элементов в форме редактирования элемента</t>
   </si>
   <si>
-    <t>Отработать работу установщика программы</t>
-  </si>
-  <si>
     <t>Добавить возможность сохранения в Эксель</t>
+  </si>
+  <si>
+    <t>Отработать работу установщика программы (.Net FrameWork+ SQLLocalDb-)</t>
   </si>
 </sst>
 </file>
@@ -92,7 +92,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,6 +111,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -124,11 +130,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -416,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,15 +489,15 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
+      <c r="B11" s="3"/>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -522,6 +529,7 @@
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
       <c r="C19" t="s">
         <v>11</v>
       </c>

--- a/TZ.xlsx
+++ b/TZ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A251C0-B894-48E6-94D8-4D6762912334}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C49FA3-E836-4FBF-B7F6-C1D35FC69C07}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Доработать универсальную форму элемента справочника для списков элементов справочников</t>
   </si>
@@ -92,7 +92,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,12 +111,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -130,12 +124,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -423,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,12 +522,13 @@
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
+      <c r="B19" s="3"/>
       <c r="C19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
       <c r="C20" t="s">
         <v>12</v>
       </c>

--- a/TZ.xlsx
+++ b/TZ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C49FA3-E836-4FBF-B7F6-C1D35FC69C07}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D7B8EF-7149-4E01-B14F-E73B3A87D7D7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="20">
   <si>
     <t>Доработать универсальную форму элемента справочника для списков элементов справочников</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Отработать работу установщика программы (.Net FrameWork+ SQLLocalDb-)</t>
+  </si>
+  <si>
+    <t>Сворачивание форм вслед за главной формой</t>
   </si>
 </sst>
 </file>
@@ -414,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C22"/>
+  <dimension ref="B2:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,85 +428,82 @@
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>45038</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>45053</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" t="s">
         <v>15</v>
@@ -534,6 +534,7 @@
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
       <c r="C21" t="s">
         <v>13</v>
       </c>
@@ -541,6 +542,11 @@
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/TZ.xlsx
+++ b/TZ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D7B8EF-7149-4E01-B14F-E73B3A87D7D7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574CC180-31D3-4504-B37D-D807B0BE6C43}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="19">
   <si>
     <t>Доработать универсальную форму элемента справочника для списков элементов справочников</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Доработать редактор настроек программы</t>
-  </si>
-  <si>
-    <t>"=&gt;"</t>
   </si>
   <si>
     <t>Форма "Текущее состояние и местоположение техники"</t>
@@ -419,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,25 +469,25 @@
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
@@ -500,53 +497,54 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/TZ.xlsx
+++ b/TZ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574CC180-31D3-4504-B37D-D807B0BE6C43}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36FE0D4-A203-48A2-91C3-7A5D911D870C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,6 +537,7 @@
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
       <c r="C22" t="s">
         <v>13</v>
       </c>
